--- a/TestCases_WordProcessor.xlsx
+++ b/TestCases_WordProcessor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kvageesan/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69FAB49-03C1-DB45-89D4-2AAC2695CE11}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB58B12-4198-B94B-B5E9-BE42E61FFC2A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{8BAEFD54-7B68-F849-94C5-BC6C555795DD}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" xr2:uid="{8BAEFD54-7B68-F849-94C5-BC6C555795DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="50">
   <si>
     <t>Positive flows</t>
   </si>
@@ -174,10 +174,16 @@
     <t>Total number of tests for this project</t>
   </si>
   <si>
-    <t>37 + out of scope</t>
-  </si>
-  <si>
     <t>Files in other languages</t>
+  </si>
+  <si>
+    <t>Test files in foreign language. File should be processed and it  should return longest foreign language letter.</t>
+  </si>
+  <si>
+    <t>Prints longest foreign word. Program doesn't understand spaces in foreign language unless there is an english word in between. It is designed in such a way.</t>
+  </si>
+  <si>
+    <t>40 + out of scope</t>
   </si>
 </sst>
 </file>
@@ -209,7 +215,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -228,6 +234,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -313,7 +325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -324,18 +336,42 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -343,9 +379,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -354,26 +387,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -689,10 +704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3B6BEDC-3C63-0B45-9B53-1F1980D1AC01}">
-  <dimension ref="A2:E36"/>
+  <dimension ref="A2:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -705,442 +720,466 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+    </row>
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="17"/>
+      <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="19"/>
+      <c r="B6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="19"/>
+      <c r="B7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="19"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="20"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11" s="19"/>
+      <c r="B11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" s="19"/>
+      <c r="B12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A13" s="19"/>
+      <c r="B13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="20"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16" s="19"/>
+      <c r="B16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A17" s="19"/>
+      <c r="B17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A18" s="19"/>
+      <c r="B18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A19" s="19"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A20" s="19"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A21" s="19"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A22" s="20"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A23" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A24" s="13"/>
+      <c r="B24" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A25" s="13"/>
+      <c r="B25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A26" s="13"/>
+      <c r="B26" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A27" s="13"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A28" s="13"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A29" s="13"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A30" s="10"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="10"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="8"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+    </row>
+    <row r="33" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+    </row>
+    <row r="34" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+    </row>
+    <row r="35" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
-      <c r="B4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
-      <c r="B6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
-      <c r="B7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="13"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
-      <c r="B11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
-      <c r="B12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
-      <c r="B13" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A15" s="12"/>
-      <c r="B15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
-      <c r="B16" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A17" s="12"/>
-      <c r="B17" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A18" s="12"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A19" s="12"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A20" s="13"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A21" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A22" s="16"/>
-      <c r="B22" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A23" s="16"/>
-      <c r="B23" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A24" s="16"/>
-      <c r="B24" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A25" s="16"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A26" s="16"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A27" s="16"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="18"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="14"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="18"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="14"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-    </row>
-    <row r="31" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-    </row>
-    <row r="32" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="6" t="s">
+      <c r="B38" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-    </row>
-    <row r="33" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A21:A27"/>
-    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A23:A29"/>
+    <mergeCell ref="A32:E32"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A20"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A15:A22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
